--- a/Faculty.xlsx
+++ b/Faculty.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cathechism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5BBA69D-E130-49E6-8363-AE298D0F13DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -43,9 +42,6 @@
     <t>Date of Birth</t>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
     <t>Designation</t>
   </si>
   <si>
@@ -59,12 +55,6 @@
   </si>
   <si>
     <t>Mother's Name</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Re-Password</t>
   </si>
   <si>
     <t>Male</t>
@@ -917,15 +907,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:AC1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -962,74 +952,62 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1">
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <v>2</v>
+      </c>
+      <c r="R1">
+        <v>3</v>
+      </c>
+      <c r="S1">
+        <v>4</v>
+      </c>
+      <c r="T1">
+        <v>5</v>
+      </c>
+      <c r="U1">
+        <v>6</v>
+      </c>
+      <c r="V1">
+        <v>7</v>
+      </c>
+      <c r="W1">
+        <v>8</v>
+      </c>
+      <c r="X1">
+        <v>9</v>
+      </c>
+      <c r="Y1">
+        <v>10</v>
+      </c>
+      <c r="Z1">
+        <v>11</v>
+      </c>
+      <c r="AA1">
+        <v>12</v>
+      </c>
+      <c r="AB1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AC1" t="s">
         <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1">
-        <v>1</v>
-      </c>
-      <c r="T1">
-        <v>2</v>
-      </c>
-      <c r="U1">
-        <v>3</v>
-      </c>
-      <c r="V1">
-        <v>4</v>
-      </c>
-      <c r="W1">
-        <v>5</v>
-      </c>
-      <c r="X1">
-        <v>6</v>
-      </c>
-      <c r="Y1">
-        <v>7</v>
-      </c>
-      <c r="Z1">
-        <v>8</v>
-      </c>
-      <c r="AA1">
-        <v>9</v>
-      </c>
-      <c r="AB1">
-        <v>10</v>
-      </c>
-      <c r="AC1">
-        <v>11</v>
-      </c>
-      <c r="AD1">
-        <v>12</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>$Q$1:$R$1</formula1>
+      <formula1>$N$1:$O$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
-      <formula1>$S$1:$AD$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
-      <formula1>$AE$1:$AF$1</formula1>
+      <formula1>$AB$1:$AC$1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
